--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1369067.204493635</v>
+        <v>1473246.838944707</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.105228318</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>205.6368254889298</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>375.9915397928976</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734075887</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983813</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +870,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>186.4177798205635</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>132.7585420810679</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>266.3770268865747</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>26.77891268530598</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>123.8745395161397</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>114.265617377101</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>8.751194497888946</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>33.38304376059013</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>15.07437110675873</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,19 +1347,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>156.7554742151752</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.16086499484926</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>151.8518831495024</v>
       </c>
     </row>
     <row r="14">
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>45.16086499484972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>135.3135037226523</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986237</v>
       </c>
       <c r="D19" t="n">
-        <v>102.1557845699813</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>72.60410776435062</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>45.16086499484859</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2378,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>117.4765410832877</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2719,16 +2721,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>55.52079624060472</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2953,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>60.64713141731118</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3190,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>75.21356227238219</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3427,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790577</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>177.696569780335</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,10 +3954,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>106.997776813539</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4141,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>105.1820732698676</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1559.116588708439</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C2" t="n">
-        <v>1190.154071768027</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D2" t="n">
-        <v>1190.154071768027</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218338</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296683</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520486</v>
+        <v>2801.623440380154</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176915</v>
+        <v>2470.560553036583</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906801</v>
+        <v>2470.560553036583</v>
       </c>
       <c r="X2" t="n">
-        <v>2325.505862906801</v>
+        <v>2097.094794775503</v>
       </c>
       <c r="Y2" t="n">
-        <v>1945.716428772561</v>
+        <v>1706.955462799692</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218338</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031475</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158125</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438128</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992582</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410636</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886739</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533339</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279951</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915318</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.608663915318</v>
+        <v>1547.30787621778</v>
       </c>
       <c r="U4" t="n">
-        <v>1446.505797040962</v>
+        <v>1258.205009343424</v>
       </c>
       <c r="V4" t="n">
-        <v>1446.505797040962</v>
+        <v>1003.520521137537</v>
       </c>
       <c r="W4" t="n">
-        <v>1312.406259585337</v>
+        <v>714.1033511005761</v>
       </c>
       <c r="X4" t="n">
-        <v>1312.406259585337</v>
+        <v>714.1033511005761</v>
       </c>
       <c r="Y4" t="n">
-        <v>1091.613680441807</v>
+        <v>714.1033511005761</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1561.900772669909</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C5" t="n">
-        <v>1292.833068744076</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520486</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520486</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176915</v>
+        <v>3092.578667240559</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906801</v>
+        <v>2739.810011970445</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.040104645721</v>
+        <v>2366.344253709365</v>
       </c>
       <c r="Y5" t="n">
-        <v>1561.900772669909</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>435.8535386027987</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>435.8535386027987</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>435.8535386027987</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>435.8535386027987</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>288.9635911048883</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.46409084602</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1837.46409084602</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1722.044275313594</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W7" t="n">
-        <v>1722.044275313594</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>617.5020034330385</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>617.5020034330385</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1995.741330469122</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.778813528711</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1354.075868958388</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>968.2876163601441</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>557.3017115705366</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>142.229261415533</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2755.806928794324</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X8" t="n">
-        <v>2382.341170533244</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y8" t="n">
-        <v>2382.341170533244</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4874,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>794.6070935315613</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C10" t="n">
-        <v>625.6709106036544</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1912.067910606918</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1720.382026433745</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1498.615411003271</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1209.512544128914</v>
       </c>
       <c r="V10" t="n">
-        <v>1424.011591242373</v>
+        <v>954.8280559230273</v>
       </c>
       <c r="W10" t="n">
-        <v>1134.594421205412</v>
+        <v>665.4108858860666</v>
       </c>
       <c r="X10" t="n">
-        <v>1134.594421205412</v>
+        <v>437.4213349880492</v>
       </c>
       <c r="Y10" t="n">
-        <v>976.255558361801</v>
+        <v>216.6287558445192</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,52 +5029,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="Y13" t="n">
-        <v>1144.284195611859</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5270,13 +5272,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
@@ -5291,19 +5293,19 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="D16" t="n">
         <v>779.6143379232836</v>
@@ -5431,7 +5433,7 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5443,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,13 +5454,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487568</v>
@@ -5476,10 +5478,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="17">
@@ -5507,25 +5509,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,13 +5536,13 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>1089.917939501689</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>920.9817565737862</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>770.8651171614505</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>622.9520235790574</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>476.062076081147</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>308.8659767960269</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>167.154145638225</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1492.358983475459</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1271.566404331929</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5832,25 +5834,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>671.2000270096659</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.284195611858</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
         <v>1948.813509611463</v>
@@ -5981,7 +5983,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192548</v>
@@ -5990,49 +5992,49 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>2716.927329289434</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>3212.252935505192</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>3809.631423131744</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>4437.229386686351</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>4437.229386686351</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>4437.229386686351</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S24" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V24" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W24" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y24" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>379.6759351444937</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>212.4798358593736</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6218,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998286</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797187</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="29">
@@ -6443,7 +6445,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6458,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,10 +6475,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,25 +6542,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1520.445529061503</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925216</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E31" t="n">
-        <v>296.7882229101285</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F31" t="n">
-        <v>296.7882229101285</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168404</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,10 +6712,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,28 +6779,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>633.9926444679666</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>483.8760050556308</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6926,58 +6928,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517212</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="38">
@@ -7160,37 +7162,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7393,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7494,22 +7496,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.439756756785</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7628,28 +7630,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>94.56320294380271</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>244.2098454714574</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>244.2098454714574</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>810.0653816078141</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>641.1291986799072</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>491.0125592675714</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E46" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2273.672861378251</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2273.672861378251</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1984.597634722449</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1729.913146516562</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1440.495976479601</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1212.506425581584</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>991.7138464380538</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.345373895096259e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>134.671115187088</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23476,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>66.73277020259238</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>134.6711151870876</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>13.30196929556004</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>8.661728554214903</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>134.6711151870887</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>36.51445555167193</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24206,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>22.81817176293615</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>84.77391660561915</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>104.8770068749577</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038565</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>71.22040037418698</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>46.45968844823054</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>39.70888054695322</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>145.139866510289</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>120.3791545843333</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>75.84421273177699</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>918408.9720564664</v>
+        <v>918408.9720564665</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>918408.9720564664</v>
+        <v>918408.9720564667</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>918408.9720564664</v>
+        <v>918408.9720564665</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>918408.9720564665</v>
+        <v>918408.9720564664</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>918408.9720564664</v>
+        <v>918408.9720564665</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>918408.9720564664</v>
+        <v>918408.9720564665</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>918408.9720564664</v>
+        <v>918408.9720564666</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>918408.9720564665</v>
+        <v>918408.9720564664</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.106165177</v>
+      </c>
+      <c r="C2" t="n">
+        <v>513151.106165177</v>
+      </c>
+      <c r="D2" t="n">
         <v>513151.1061651771</v>
       </c>
-      <c r="C2" t="n">
-        <v>513151.1061651772</v>
-      </c>
-      <c r="D2" t="n">
-        <v>513151.106165177</v>
-      </c>
       <c r="E2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="F2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="G2" t="n">
+        <v>504466.6248062539</v>
+      </c>
+      <c r="H2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="I2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="I2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="J2" t="n">
-        <v>504466.6248062536</v>
-      </c>
       <c r="K2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="L2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="M2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="N2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="O2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="L2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>504466.6248062537</v>
-      </c>
-      <c r="N2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="O2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="P2" t="n">
-        <v>504466.6248062536</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.307101673679426e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>1.797263848857256e-10</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314496</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314493</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314482</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
         <v>11167.03225179351</v>
@@ -26433,25 +26435,25 @@
         <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="I4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="O4" t="n">
         <v>11167.03225179351</v>
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1013881.647146953</v>
+        <v>-1013881.647146954</v>
       </c>
       <c r="C6" t="n">
         <v>314863.0985806389</v>
       </c>
       <c r="D6" t="n">
-        <v>314863.0985806383</v>
+        <v>314863.098580639</v>
       </c>
       <c r="E6" t="n">
-        <v>66764.60092319769</v>
+        <v>66764.60092319803</v>
       </c>
       <c r="F6" t="n">
         <v>392177.0627305529</v>
       </c>
       <c r="G6" t="n">
-        <v>392177.0627305534</v>
+        <v>392177.0627305532</v>
       </c>
       <c r="H6" t="n">
-        <v>392177.0627305531</v>
+        <v>392177.0627305532</v>
       </c>
       <c r="I6" t="n">
         <v>392177.062730553</v>
@@ -26546,22 +26548,22 @@
         <v>174645.8603332756</v>
       </c>
       <c r="K6" t="n">
-        <v>392177.0627305531</v>
+        <v>392177.0627305532</v>
       </c>
       <c r="L6" t="n">
-        <v>392177.0627305529</v>
+        <v>392177.0627305532</v>
       </c>
       <c r="M6" t="n">
-        <v>307122.0347950412</v>
+        <v>307122.0347950413</v>
       </c>
       <c r="N6" t="n">
         <v>392177.0627305531</v>
       </c>
       <c r="O6" t="n">
+        <v>392177.062730553</v>
+      </c>
+      <c r="P6" t="n">
         <v>392177.0627305532</v>
-      </c>
-      <c r="P6" t="n">
-        <v>392177.062730553</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="G4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292606</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>45.35834646997219</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.24639886315595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004739</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>33.13116945560569</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>153.7644562555231</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>98.89586488443285</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,7 +27675,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>300.9733457848289</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27774,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>42.15126874288848</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>137.872025946727</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>345.931847122794</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>261.2247206267303</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>73.8577815632886</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,19 +28067,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>61.82917913691961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28615,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28722,7 +28724,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974798</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003807</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095019</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781687</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233472</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970247</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098818</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32078,31 +32080,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>446.0127311990634</v>
+        <v>620.1193660647493</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>436.4492970000073</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>570.6116741576916</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>245.8118639189577</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>363.5371514786841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>359.1374415194858</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>363.5371514786841</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33047,16 +33049,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
-        <v>522.1224556861836</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>489.2891832783074</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>309.9424824173362</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,22 +33739,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>576.057346513631</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33995,16 +33997,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34214,34 +34216,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>537.6437863443698</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>100.2764607028594</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34469,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687123</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554002</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882187</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193714</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037192</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222461</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597696</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013289</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127269</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306614</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443194</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226396</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789354</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>303.878697277045</v>
+        <v>477.985332142731</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>302.474889585677</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>432.0572943778175</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>103.6778299969394</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>219.1556674334643</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>220.9409070342396</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36695,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
-        <v>379.5262112417391</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>357.9474711949741</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>433.4611020691866</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>395.0475418999253</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.7540807028594299</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1473246.838944707</v>
+        <v>1469234.228930713</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228318</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>3.657500457871408</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -715,7 +715,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>205.6368254889298</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -825,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>186.4177798205635</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>78.78083674901981</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>26.77891268530598</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>123.9334245782903</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>123.8745395161397</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>33.38304376059013</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1186,13 +1186,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>78.96122915360965</v>
       </c>
     </row>
     <row r="9">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>77.31354443380461</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>15.07437110675873</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>151.8518831495024</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>135.3135037226523</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>175.3253504652189</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986237</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>72.60410776435062</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>108.9065924712593</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>55.52079624060472</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>60.11729550773637</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>1.799772605716619</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>170.9457618790577</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T40" t="n">
-        <v>177.696569780335</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4143,7 +4143,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>26.05480806223585</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1320.35562273557</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1320.35562273557</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
         <v>1320.35562273557</v>
@@ -4330,10 +4330,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,13 +4342,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
@@ -4363,19 +4363,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2801.623440380154</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2470.560553036583</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2470.560553036583</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X2" t="n">
-        <v>2097.094794775503</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y2" t="n">
-        <v>1706.955462799692</v>
+        <v>2051.278283189673</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>532.4548862703364</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>363.5187033424295</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>213.4020639300938</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
         <v>66.5121164321834</v>
@@ -4515,25 +4515,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1547.30787621778</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1258.205009343424</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1003.520521137537</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W4" t="n">
-        <v>714.1033511005761</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>714.1033511005761</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>714.1033511005761</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
         <v>1976.204921733553</v>
@@ -4552,67 +4552,67 @@
         <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993394</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3092.578667240559</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2739.810011970445</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X5" t="n">
-        <v>2366.344253709365</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y5" t="n">
-        <v>1976.204921733553</v>
+        <v>2424.744041450753</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4661,13 +4661,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>435.8535386027987</v>
+        <v>752.7622949738568</v>
       </c>
       <c r="C7" t="n">
-        <v>435.8535386027987</v>
+        <v>583.8261120459499</v>
       </c>
       <c r="D7" t="n">
-        <v>435.8535386027987</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E7" t="n">
-        <v>435.8535386027987</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>288.9635911048883</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
         <v>163.8377936138381</v>
@@ -4722,55 +4722,55 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368016</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W7" t="n">
-        <v>845.4915543310558</v>
+        <v>1383.192889845644</v>
       </c>
       <c r="X7" t="n">
-        <v>617.5020034330385</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y7" t="n">
-        <v>617.5020034330385</v>
+        <v>934.4107598040965</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1712.341567565139</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C8" t="n">
-        <v>1712.341567565139</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D8" t="n">
-        <v>1354.075868958388</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>968.2876163601441</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>557.3017115705366</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>142.229261415533</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866152</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2489.080739605072</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2098.941407629261</v>
+        <v>1618.75081059268</v>
       </c>
     </row>
     <row r="9">
@@ -4877,28 +4877,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>216.6287558445192</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445192</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1912.067910606918</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1720.382026433745</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1498.615411003271</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1209.512544128914</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>954.8280559230273</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>665.4108858860666</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>437.4213349880492</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>216.6287558445192</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5023,13 +5023,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,28 +5038,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5120,22 +5120,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5238,13 +5238,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1433.701365648819</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5357,25 +5357,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.2946447138415</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>916.2946447138415</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1323.650755795185</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1095.661204897168</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138415</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="17">
@@ -5509,40 +5509,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5551,7 +5551,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1089.917939501689</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>920.9817565737862</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>770.8651171614505</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>622.9520235790574</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>476.062076081147</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>308.8659767960269</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>167.154145638225</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1720.348534373476</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1492.358983475459</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1271.566404331929</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5837,22 +5837,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5986,19 +5986,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2716.927329289434</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>3212.252935505192</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>3809.631423131744</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>4437.229386686351</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>4437.229386686351</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>4437.229386686351</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="26">
@@ -6208,25 +6208,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6244,31 +6244,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327652</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048583</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925226</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>296.7882229101294</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>149.8982754122191</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>149.8982754122191</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.2863919474</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741513</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704552</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806535</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.4026036630049</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,19 +6460,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6554,7 +6554,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>244.7670222746423</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>103.0551911168404</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6697,19 +6697,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6782,19 +6782,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,37 +6949,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>241.729756630365</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797189</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797189</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,37 +7162,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.8641191832228</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>634.9279362553159</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T40" t="n">
-        <v>2267.47159895366</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.396372297858</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1723.711884091971</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.29471405501</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>1206.305163156993</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.5125840134625</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7493,19 +7493,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7791,16 +7791,16 @@
         <v>261.8464821474262</v>
       </c>
       <c r="E46" t="n">
-        <v>235.5284942057738</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>35.40333084624569</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>66.73277020259238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,10 +23655,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>13.30196929556004</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>111.1976478713721</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>8.661728554214903</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>36.51445555167193</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>84.77391660561915</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>226.4057028288546</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>72.11969353038565</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>46.45968844823054</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T40" t="n">
-        <v>39.70888054695322</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>120.3791545843333</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>61.35027805667497</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>918408.9720564665</v>
+        <v>918408.9720564664</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>918408.9720564667</v>
+        <v>918408.9720564664</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>918408.9720564665</v>
+        <v>918408.9720564664</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>918408.9720564664</v>
+        <v>918408.9720564665</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>918408.9720564665</v>
+        <v>918408.9720564664</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>918408.9720564665</v>
+        <v>918408.9720564664</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>918408.9720564664</v>
+        <v>918408.9720564665</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>918408.9720564666</v>
+        <v>918408.9720564665</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>918408.9720564665</v>
+        <v>918408.9720564664</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
+        <v>513151.1061651772</v>
+      </c>
+      <c r="D2" t="n">
         <v>513151.106165177</v>
-      </c>
-      <c r="D2" t="n">
-        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
         <v>504466.6248062538</v>
@@ -26328,13 +26328,13 @@
         <v>504466.6248062537</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="H2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="I2" t="n">
         <v>504466.6248062538</v>
-      </c>
-      <c r="I2" t="n">
-        <v>504466.6248062537</v>
       </c>
       <c r="J2" t="n">
         <v>504466.6248062537</v>
@@ -26346,16 +26346,16 @@
         <v>504466.6248062538</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>90354.06702314483</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314489</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
@@ -26435,25 +26435,25 @@
         <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
         <v>11167.03225179351</v>
@@ -26524,46 +26524,46 @@
         <v>-1013881.647146954</v>
       </c>
       <c r="C6" t="n">
-        <v>314863.0985806389</v>
+        <v>314863.0985806395</v>
       </c>
       <c r="D6" t="n">
-        <v>314863.098580639</v>
+        <v>314863.0985806384</v>
       </c>
       <c r="E6" t="n">
-        <v>66764.60092319803</v>
+        <v>66417.22166884098</v>
       </c>
       <c r="F6" t="n">
-        <v>392177.0627305529</v>
+        <v>391829.6834761961</v>
       </c>
       <c r="G6" t="n">
-        <v>392177.0627305532</v>
+        <v>391829.6834761962</v>
       </c>
       <c r="H6" t="n">
-        <v>392177.0627305532</v>
+        <v>391829.683476196</v>
       </c>
       <c r="I6" t="n">
-        <v>392177.062730553</v>
+        <v>391829.6834761962</v>
       </c>
       <c r="J6" t="n">
-        <v>174645.8603332756</v>
+        <v>174298.4810789186</v>
       </c>
       <c r="K6" t="n">
-        <v>392177.0627305532</v>
+        <v>391829.6834761961</v>
       </c>
       <c r="L6" t="n">
-        <v>392177.0627305532</v>
+        <v>391829.6834761961</v>
       </c>
       <c r="M6" t="n">
-        <v>307122.0347950413</v>
+        <v>306774.6555406842</v>
       </c>
       <c r="N6" t="n">
-        <v>392177.0627305531</v>
+        <v>391829.683476196</v>
       </c>
       <c r="O6" t="n">
-        <v>392177.062730553</v>
+        <v>391829.683476196</v>
       </c>
       <c r="P6" t="n">
-        <v>392177.0627305532</v>
+        <v>391829.683476196</v>
       </c>
     </row>
   </sheetData>
@@ -26792,10 +26792,10 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,7 +26804,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>379.0763412056091</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>45.35834646997219</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>33.13116945560569</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>303.9530049144607</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>300.9733457848289</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>24.68204843992206</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>42.15126874288848</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,10 +27858,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>261.2247206267303</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>307.276709502444</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>69.12041821276456</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>73.8577815632886</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28724,7 +28724,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31840,10 +31840,10 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31855,10 +31855,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P12" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>436.4492970000073</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32472,34 +32472,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>245.8118639189577</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>359.1374415194858</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,22 +33502,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>309.9424824173362</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>361.7519118779092</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,16 +33997,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162548</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,22 +34213,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34383,7 +34383,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35503,10 +35503,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P12" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>302.474889585677</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>103.6778299969394</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>219.1556674334643</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>167.3462379728918</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,19 +37387,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>219.1556674334648</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>110.1905571410452</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38031,7 +38031,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1469234.228930713</v>
+        <v>1470994.759233498</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.657500457871408</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>125.013218029324</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>104.1375486291691</v>
       </c>
       <c r="W4" t="n">
-        <v>203.1977700471494</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78.78083674901981</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>119.4965468000156</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1059,7 +1059,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>123.9334245782903</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>61.42978662487896</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>75.45713216103701</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>78.96122915360965</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>77.31354443380461</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>85.47654389282619</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>57.24347904696366</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>110.0177171766856</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766865</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>175.3253504652189</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812101</v>
       </c>
       <c r="D19" t="n">
-        <v>23.10998325717174</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2487,10 +2487,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>145.421048022936</v>
       </c>
       <c r="G25" t="n">
-        <v>55.52079624060383</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612139</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>60.11729550773637</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>1.594095449514225</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.14614278817543</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788175879</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>71.76895293959856</v>
       </c>
       <c r="I46" t="n">
-        <v>19.91555826189057</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>2102.480899540951</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4339,43 +4339,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450753</v>
+        <v>2862.546497866153</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189673</v>
+        <v>2489.080739605073</v>
       </c>
       <c r="Y2" t="n">
-        <v>2051.278283189673</v>
+        <v>2489.080739605073</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686085</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.071687106476</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080139</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986313</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068415</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.46467248647</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962573</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201688</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695168</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507439</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275696</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V4" t="n">
-        <v>1927.294548088493</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1681.836054204828</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1681.836054204828</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1323.570355598078</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528559</v>
+        <v>937.7821029998333</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389512</v>
+        <v>526.7961982102258</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4582,37 +4582,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2424.744041450753</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y5" t="n">
-        <v>2424.744041450753</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="6">
@@ -4643,16 +4643,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4661,13 +4661,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>752.7622949738568</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C7" t="n">
-        <v>583.8261120459499</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D7" t="n">
-        <v>458.6408346941415</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882605</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.192889845644</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X7" t="n">
-        <v>1155.203338947627</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.4107598040965</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="8">
@@ -4801,7 +4801,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4816,25 +4816,25 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
         <v>2755.806928794324</v>
@@ -4843,13 +4843,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
         <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1618.75081059268</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>463.6594280995014</v>
+        <v>934.4107598040977</v>
       </c>
       <c r="C10" t="n">
-        <v>294.7232451715945</v>
+        <v>765.4745768761908</v>
       </c>
       <c r="D10" t="n">
-        <v>144.6066057592588</v>
+        <v>615.357937463855</v>
       </c>
       <c r="E10" t="n">
-        <v>66.5121164321834</v>
+        <v>467.4448438814619</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>320.5548963835515</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>152.8520597582705</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>152.8520597582705</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.3078929297411</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5020,31 +5020,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,37 +5053,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400712</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>513.8536007400712</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,52 +5266,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1323.650755795185</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1095.661204897168</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5509,13 +5509,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5524,34 +5524,34 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5734,37 +5734,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5901,7 +5901,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683105</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>707.6725264685227</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>538.7363435406158</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925216</v>
+        <v>388.6197041282801</v>
       </c>
       <c r="E25" t="n">
-        <v>296.7882229101285</v>
+        <v>240.706610545887</v>
       </c>
       <c r="F25" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2171.28000623896</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1882.204779583157</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1627.52029137727</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1338.10312134031</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>1110.113570442292</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>889.3209912987625</v>
       </c>
     </row>
     <row r="26">
@@ -6208,22 +6208,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
@@ -6232,13 +6232,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6660,13 +6660,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1432.091168225067</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6694,58 +6694,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6867,43 +6867,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7110,37 +7110,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,31 +7162,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7560,7 +7560,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D46" t="n">
-        <v>261.8464821474262</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E46" t="n">
-        <v>113.9333885650331</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F46" t="n">
-        <v>113.9333885650331</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="G46" t="n">
-        <v>113.9333885650331</v>
+        <v>248.3972582582387</v>
       </c>
       <c r="H46" t="n">
-        <v>113.9333885650331</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0033420516642</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>35.40333084624569</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>57.22910392194132</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>111.1976478713721</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="D19" t="n">
-        <v>125.5054897610406</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>110.003342051665</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>191.8807364711669</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>226.4057028288546</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>284.9289028870768</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.22910392194625</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>146.8157004124962</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.22910392194581</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>68.52575990662532</v>
       </c>
       <c r="I46" t="n">
-        <v>61.35027805667497</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>918408.9720564664</v>
+        <v>918408.9720564665</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>918408.9720564664</v>
+        <v>918408.9720564665</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>918408.9720564665</v>
+        <v>918408.9720564663</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>918408.9720564665</v>
+        <v>918408.9720564664</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>918408.9720564664</v>
+        <v>918408.9720564665</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>918408.9720564664</v>
+        <v>918408.9720564663</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>918408.9720564665</v>
+        <v>918408.9720564663</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>918408.9720564665</v>
+        <v>918408.9720564664</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>918408.9720564664</v>
+        <v>918408.9720564665</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
         <v>513151.106165177</v>
@@ -26328,28 +26328,28 @@
         <v>504466.6248062537</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="H2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="J2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="K2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="L2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="M2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="M2" t="n">
-        <v>504466.6248062536</v>
-      </c>
       <c r="N2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="O2" t="n">
         <v>504466.6248062536</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.894519977620803e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.06702314474</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314489</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.06702314482</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
@@ -26524,46 +26524,46 @@
         <v>-1013881.647146954</v>
       </c>
       <c r="C6" t="n">
-        <v>314863.0985806395</v>
+        <v>314863.0985806393</v>
       </c>
       <c r="D6" t="n">
-        <v>314863.0985806384</v>
+        <v>314863.0985806389</v>
       </c>
       <c r="E6" t="n">
-        <v>66417.22166884098</v>
+        <v>66729.86299776178</v>
       </c>
       <c r="F6" t="n">
-        <v>391829.6834761961</v>
+        <v>392142.3248051173</v>
       </c>
       <c r="G6" t="n">
-        <v>391829.6834761962</v>
+        <v>392142.3248051173</v>
       </c>
       <c r="H6" t="n">
-        <v>391829.683476196</v>
+        <v>392142.3248051176</v>
       </c>
       <c r="I6" t="n">
-        <v>391829.6834761962</v>
+        <v>392142.3248051173</v>
       </c>
       <c r="J6" t="n">
-        <v>174298.4810789186</v>
+        <v>174611.1224078396</v>
       </c>
       <c r="K6" t="n">
-        <v>391829.6834761961</v>
+        <v>392142.3248051174</v>
       </c>
       <c r="L6" t="n">
-        <v>391829.6834761961</v>
+        <v>392142.3248051174</v>
       </c>
       <c r="M6" t="n">
-        <v>306774.6555406842</v>
+        <v>307087.2968696055</v>
       </c>
       <c r="N6" t="n">
-        <v>391829.683476196</v>
+        <v>392142.3248051173</v>
       </c>
       <c r="O6" t="n">
-        <v>391829.683476196</v>
+        <v>392142.3248051172</v>
       </c>
       <c r="P6" t="n">
-        <v>391829.683476196</v>
+        <v>392142.3248051173</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>379.0763412056091</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>240.2596737416835</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>148.0000946946589</v>
       </c>
       <c r="W4" t="n">
-        <v>83.32522828944164</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>303.9530049144607</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>291.4251788534378</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>24.68204843992206</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>83.32522828944182</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>307.2767095024436</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>307.276709502444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>69.12041821276456</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>10.8758765170119</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29207,7 +29207,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>-3.173620932428064e-12</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -29757,7 +29757,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29939,7 +29939,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>-2.053100445934254e-12</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -30045,7 +30045,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30182,7 +30182,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32472,7 +32472,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817575</v>
@@ -32785,34 +32785,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>302.967544750805</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33198,7 +33198,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
         <v>790.8204499236507</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,34 +33733,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,34 +33970,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34152,10 +34152,10 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34383,7 +34383,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>160.8335108287866</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36846,7 +36846,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37235,7 +37235,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010408</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37478,7 +37478,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060414</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37800,10 +37800,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
